--- a/medicine/Œil et vue/Teresa_Nervosa/Teresa_Nervosa.xlsx
+++ b/medicine/Œil et vue/Teresa_Nervosa/Teresa_Nervosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Teresa Taylor
-Teresa Taylor, connu essentiellement sous le nom de Teresa Nervosa, née le 10 novembre 1962 à Arlington (Texas) et morte le 18 juin 2023[1], est une musicienne et actrice américaine, célèbre comme batteur du groupe Butthole Surfers.
+Teresa Taylor, connu essentiellement sous le nom de Teresa Nervosa, née le 10 novembre 1962 à Arlington (Texas) et morte le 18 juin 2023, est une musicienne et actrice américaine, célèbre comme batteur du groupe Butthole Surfers.
 </t>
         </is>
       </c>
@@ -512,13 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teresa Nervosa commence à jouer du tambour dans des fanfares à Fort Worth et Austin au Texas en compagnie de King Coffey (en)[2]. De 1983 à 1989, elle et Coffey seront ainsi alternativement les batteurs du groupe Butthole Surfers. 
-En 1989, elle quitte le groupe et doit peu de temps après subir une opération du cerveau à cause d'un anévrisme. Elle commence aussi à souffrir d"épilepsie photo-sensitive[3]. 
-Employée dans une école pour aveugles et malvoyants du Texas depuis 1995, elle est rappelée en 2008 pour la tournée 2009 des Butthole Surfers[4]. 
-Cinéma
-Teresa Nervosa apparaît dans Slacker de Richard Linklater en 1991 dans le rôle d'une femme essayant de vendre un frottis de Madonna[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teresa Nervosa commence à jouer du tambour dans des fanfares à Fort Worth et Austin au Texas en compagnie de King Coffey (en). De 1983 à 1989, elle et Coffey seront ainsi alternativement les batteurs du groupe Butthole Surfers. 
+En 1989, elle quitte le groupe et doit peu de temps après subir une opération du cerveau à cause d'un anévrisme. Elle commence aussi à souffrir d"épilepsie photo-sensitive. 
+Employée dans une école pour aveugles et malvoyants du Texas depuis 1995, elle est rappelée en 2008 pour la tournée 2009 des Butthole Surfers. 
 </t>
         </is>
       </c>
@@ -544,10 +556,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teresa Nervosa apparaît dans Slacker de Richard Linklater en 1991 dans le rôle d'une femme essayant de vendre un frottis de Madonna.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Teresa_Nervosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Teresa_Nervosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec Butthole Surfers.
 1984 : Live PCPPEP
@@ -565,31 +616,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Teresa_Nervosa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Teresa_Nervosa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1988 : Bar-B-Que Movie (en)
 1991 : Slacker</t>
